--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -934,7 +938,7 @@
 Work addresses are not typically entered in this property as they are usually role dependent.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
@@ -1563,10 +1567,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2005,16 +2009,16 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>74</v>
@@ -2022,10 +2026,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2036,7 +2040,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -2045,19 +2049,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2107,13 +2111,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -2136,10 +2140,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2150,7 +2154,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -2159,16 +2163,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2219,19 +2223,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2248,10 +2252,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2262,28 +2266,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2333,19 +2337,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2362,10 +2366,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2376,7 +2380,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2388,16 +2392,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2423,13 +2427,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2447,19 +2451,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2476,21 +2480,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2502,16 +2506,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2561,25 +2565,25 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2590,14 +2594,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2616,16 +2620,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2675,7 +2679,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2693,7 +2697,7 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2704,14 +2708,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2730,16 +2734,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2789,7 +2793,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2801,13 +2805,13 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2818,14 +2822,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2838,25 +2842,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2905,7 +2909,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2917,13 +2921,13 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2934,10 +2938,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2957,20 +2961,20 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -3007,17 +3011,17 @@
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3029,30 +3033,30 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
@@ -3071,20 +3075,20 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -3133,7 +3137,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3145,27 +3149,27 @@
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3176,7 +3180,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -3188,13 +3192,13 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3245,13 +3249,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
@@ -3263,7 +3267,7 @@
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3274,14 +3278,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3300,16 +3304,16 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3347,19 +3351,19 @@
         <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3371,13 +3375,13 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>74</v>
@@ -3388,10 +3392,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3402,31 +3406,31 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3451,13 +3455,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3475,25 +3479,25 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3504,10 +3508,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3518,7 +3522,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3527,22 +3531,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3567,13 +3571,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3591,25 +3595,25 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3620,10 +3624,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3631,10 +3635,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3643,35 +3647,35 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3707,28 +3711,28 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3736,10 +3740,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3747,10 +3751,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3759,19 +3763,19 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3785,7 +3789,7 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>74</v>
@@ -3821,28 +3825,28 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3850,10 +3854,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3864,7 +3868,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3873,16 +3877,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3933,28 +3937,28 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3962,10 +3966,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3976,7 +3980,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3985,19 +3989,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4047,28 +4051,28 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -4076,13 +4080,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>74</v>
@@ -4101,20 +4105,20 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -4163,7 +4167,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4175,27 +4179,27 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4206,7 +4210,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4218,13 +4222,13 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4275,13 +4279,13 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
@@ -4293,7 +4297,7 @@
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4304,14 +4308,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4330,16 +4334,16 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4377,19 +4381,19 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4401,13 +4405,13 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4418,10 +4422,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4432,31 +4436,31 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4481,13 +4485,13 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
@@ -4505,25 +4509,25 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4534,10 +4538,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4548,7 +4552,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4557,22 +4561,22 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4597,13 +4601,13 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -4621,25 +4625,25 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4650,10 +4654,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4661,10 +4665,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4673,35 +4677,35 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>74</v>
@@ -4737,28 +4741,28 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4766,10 +4770,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4777,10 +4781,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4789,19 +4793,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4815,7 +4819,7 @@
         <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>74</v>
@@ -4851,28 +4855,28 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4880,10 +4884,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4894,7 +4898,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4903,16 +4907,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4963,28 +4967,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4992,10 +4996,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5006,7 +5010,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5015,19 +5019,19 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5077,28 +5081,28 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5106,13 +5110,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>74</v>
@@ -5131,20 +5135,20 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5193,7 +5197,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5205,27 +5209,27 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5236,7 +5240,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5248,13 +5252,13 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5305,13 +5309,13 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
@@ -5323,7 +5327,7 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5334,14 +5338,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5360,16 +5364,16 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5407,19 +5411,19 @@
         <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5431,13 +5435,13 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5448,10 +5452,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5462,31 +5466,31 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5511,13 +5515,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -5535,25 +5539,25 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5564,10 +5568,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5578,7 +5582,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5587,22 +5591,22 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5627,13 +5631,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5651,25 +5655,25 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5680,10 +5684,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5691,10 +5695,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5703,35 +5707,35 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>74</v>
@@ -5767,28 +5771,28 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5796,10 +5800,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5807,10 +5811,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5819,19 +5823,19 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5845,7 +5849,7 @@
         <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>74</v>
@@ -5881,28 +5885,28 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5910,10 +5914,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5924,7 +5928,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5933,16 +5937,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5993,28 +5997,28 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -6022,10 +6026,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6036,7 +6040,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -6045,19 +6049,19 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6107,28 +6111,28 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6136,10 +6140,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6150,7 +6154,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6159,105 +6163,105 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6280,19 +6284,19 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6341,7 +6345,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6350,19 +6354,19 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6370,10 +6374,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6393,22 +6397,22 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6457,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6469,16 +6473,16 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6486,10 +6490,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6512,19 +6516,19 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6573,7 +6577,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6582,19 +6586,19 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6602,10 +6606,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6616,7 +6620,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6625,20 +6629,20 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6663,13 +6667,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6687,28 +6691,28 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6716,10 +6720,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6730,7 +6734,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6739,20 +6743,20 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6801,28 +6805,28 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6830,10 +6834,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6856,17 +6860,17 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6915,7 +6919,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6927,16 +6931,16 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -6944,10 +6948,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6970,13 +6974,13 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7027,7 +7031,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7039,16 +7043,16 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -7056,10 +7060,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7070,7 +7074,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -7082,13 +7086,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7139,13 +7143,13 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
@@ -7157,7 +7161,7 @@
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -7168,14 +7172,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7194,16 +7198,16 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7253,7 +7257,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7265,13 +7269,13 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7282,14 +7286,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7302,25 +7306,25 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7369,7 +7373,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7381,13 +7385,13 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7398,10 +7402,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7424,17 +7428,17 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7483,7 +7487,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7495,13 +7499,13 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7512,10 +7516,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7523,10 +7527,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7538,13 +7542,13 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7571,13 +7575,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7595,28 +7599,28 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7624,10 +7628,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7638,7 +7642,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7650,13 +7654,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7707,13 +7711,13 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
@@ -7725,7 +7729,7 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7736,14 +7740,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7762,16 +7766,16 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7809,19 +7813,19 @@
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7833,13 +7837,13 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7850,10 +7854,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7873,22 +7877,22 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7925,17 +7929,17 @@
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7947,13 +7951,13 @@
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -7964,13 +7968,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>74</v>
@@ -7989,22 +7993,22 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -8029,11 +8033,11 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -8051,7 +8055,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8063,13 +8067,13 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -8080,10 +8084,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8094,7 +8098,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8106,13 +8110,13 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8163,13 +8167,13 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
@@ -8181,7 +8185,7 @@
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>
@@ -8192,14 +8196,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8218,16 +8222,16 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8265,19 +8269,19 @@
         <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8289,13 +8293,13 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -8306,10 +8310,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8317,10 +8321,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8329,29 +8333,29 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>74</v>
@@ -8393,25 +8397,25 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8422,10 +8426,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8436,7 +8440,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8445,19 +8449,19 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8507,25 +8511,25 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8536,10 +8540,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8547,10 +8551,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8559,20 +8563,20 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8621,25 +8625,25 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8650,10 +8654,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8664,7 +8668,7 @@
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8673,20 +8677,20 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8735,25 +8739,25 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8764,10 +8768,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8778,7 +8782,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8787,22 +8791,22 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8851,25 +8855,25 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8880,13 +8884,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
@@ -8905,22 +8909,22 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -8945,11 +8949,11 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8967,7 +8971,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8979,13 +8983,13 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8996,10 +9000,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9010,7 +9014,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -9022,13 +9026,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9079,13 +9083,13 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
@@ -9097,7 +9101,7 @@
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -9108,14 +9112,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9134,16 +9138,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9181,19 +9185,19 @@
         <v>74</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9205,13 +9209,13 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>
@@ -9222,10 +9226,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9233,10 +9237,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -9245,29 +9249,29 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>74</v>
@@ -9309,25 +9313,25 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>74</v>
@@ -9338,10 +9342,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9352,7 +9356,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -9361,19 +9365,19 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9423,25 +9427,25 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9452,10 +9456,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9463,10 +9467,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9475,20 +9479,20 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9537,25 +9541,25 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9566,10 +9570,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9580,7 +9584,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9589,20 +9593,20 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9651,25 +9655,25 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9680,10 +9684,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9694,7 +9698,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9703,22 +9707,22 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9767,25 +9771,25 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>74</v>
@@ -9796,13 +9800,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>74</v>
@@ -9821,22 +9825,22 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9861,11 +9865,11 @@
         <v>74</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -9883,7 +9887,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9895,13 +9899,13 @@
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>
@@ -9912,10 +9916,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9926,7 +9930,7 @@
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -9938,13 +9942,13 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9995,13 +9999,13 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>74</v>
@@ -10013,7 +10017,7 @@
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -10024,14 +10028,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10050,16 +10054,16 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10097,19 +10101,19 @@
         <v>74</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10121,13 +10125,13 @@
         <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10138,10 +10142,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10149,10 +10153,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -10161,29 +10165,29 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>74</v>
@@ -10225,25 +10229,25 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10254,10 +10258,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10268,7 +10272,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10277,19 +10281,19 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10339,25 +10343,25 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10368,10 +10372,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10379,10 +10383,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -10391,20 +10395,20 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10453,25 +10457,25 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10482,10 +10486,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10496,7 +10500,7 @@
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10505,20 +10509,20 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10567,25 +10571,25 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10596,10 +10600,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10610,7 +10614,7 @@
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10619,22 +10623,22 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10683,25 +10687,25 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10712,10 +10716,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10726,7 +10730,7 @@
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -10735,22 +10739,22 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10799,25 +10803,25 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>74</v>
@@ -10828,10 +10832,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10842,7 +10846,7 @@
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -10854,17 +10858,17 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10913,28 +10917,28 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>74</v>
@@ -10942,10 +10946,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10956,7 +10960,7 @@
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
@@ -10968,13 +10972,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11025,25 +11029,25 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>74</v>
@@ -11054,10 +11058,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11080,19 +11084,19 @@
         <v>74</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -11117,13 +11121,13 @@
         <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>74</v>
@@ -11141,7 +11145,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11153,16 +11157,16 @@
         <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>74</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -870,29 +870,33 @@
 </t>
   </si>
   <si>
-    <t>Norwegian human name</t>
-  </si>
-  <si>
-    <t>Defines the format of norwegian human name according to norwegian legislation (lov om personnavn).</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>The name(s) associated with the practitioner</t>
+  </si>
+  <si>
+    <t>The name(s) associated with the practitioner.</t>
+  </si>
+  <si>
+    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  ++In general, select the value to be used in the ResourceReference.display based on this:++1. There is more than 1 name+2. Use = usual+3. Period is current to the date of the usage+4. Use = official+5. Other order as decided by internal business rules.</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
+    <t>XCN Components</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -938,19 +942,19 @@
 Work addresses are not typically entered in this property as they are usually role dependent.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The PractitionerRole does not have an address value on it, as it is expected that the location property be used for this purpose (which has an address).</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
   </si>
   <si>
-    <t>XAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t>ORC-24, STF-11, ROL-11, PRT-14</t>
+  </si>
+  <si>
+    <t>./addr</t>
+  </si>
+  <si>
+    <t>./Addresses</t>
   </si>
   <si>
     <t>Practitioner.gender</t>
@@ -1786,7 +1790,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -6281,7 +6285,7 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>275</v>
@@ -6354,19 +6358,19 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6374,10 +6378,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6400,19 +6404,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6461,7 +6465,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6476,13 +6480,13 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6490,10 +6494,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6513,22 +6517,22 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6577,7 +6581,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6586,19 +6590,19 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6606,10 +6610,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6635,14 +6639,14 @@
         <v>105</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6670,11 +6674,11 @@
         <v>176</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6706,13 +6710,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6720,10 +6724,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6746,17 +6750,17 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6805,7 +6809,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6820,13 +6824,13 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6834,10 +6838,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6860,17 +6864,17 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6919,7 +6923,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6937,10 +6941,10 @@
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -6948,10 +6952,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6974,13 +6978,13 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7031,7 +7035,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7046,13 +7050,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -7060,10 +7064,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7172,10 +7176,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7286,14 +7290,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7315,10 +7319,10 @@
         <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>134</v>
@@ -7373,7 +7377,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7402,10 +7406,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7431,14 +7435,14 @@
         <v>143</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7487,7 +7491,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7505,7 +7509,7 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7516,10 +7520,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7545,10 +7549,10 @@
         <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7575,14 +7579,14 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>85</v>
@@ -7617,10 +7621,10 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7628,10 +7632,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7740,10 +7744,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7854,10 +7858,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7880,19 +7884,19 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7939,7 +7943,7 @@
         <v>148</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7954,10 +7958,10 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -7968,13 +7972,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>74</v>
@@ -7996,19 +8000,19 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -8037,7 +8041,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -8055,7 +8059,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8070,10 +8074,10 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -8084,10 +8088,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8196,10 +8200,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8310,10 +8314,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8339,23 +8343,23 @@
         <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>74</v>
@@ -8397,7 +8401,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8412,10 +8416,10 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8426,10 +8430,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8455,13 +8459,13 @@
         <v>159</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8511,7 +8515,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8526,10 +8530,10 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8540,10 +8544,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8569,14 +8573,14 @@
         <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8625,7 +8629,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8640,10 +8644,10 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8654,10 +8658,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8683,14 +8687,14 @@
         <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8739,7 +8743,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8754,10 +8758,10 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8768,10 +8772,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8797,16 +8801,16 @@
         <v>266</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8855,7 +8859,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8870,10 +8874,10 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8884,13 +8888,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
@@ -8912,19 +8916,19 @@
         <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -8953,7 +8957,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8971,7 +8975,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8986,10 +8990,10 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -9000,10 +9004,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9112,10 +9116,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9226,10 +9230,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9255,23 +9259,23 @@
         <v>99</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="N66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>74</v>
@@ -9313,7 +9317,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9328,10 +9332,10 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>74</v>
@@ -9342,10 +9346,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9371,13 +9375,13 @@
         <v>159</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9427,7 +9431,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9442,10 +9446,10 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9456,10 +9460,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9485,14 +9489,14 @@
         <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9541,7 +9545,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9556,10 +9560,10 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9570,10 +9574,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9599,14 +9603,14 @@
         <v>159</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9655,7 +9659,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9670,10 +9674,10 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9684,10 +9688,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9713,16 +9717,16 @@
         <v>266</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9771,7 +9775,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9786,10 +9790,10 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>74</v>
@@ -9800,13 +9804,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C71" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>74</v>
@@ -9828,19 +9832,19 @@
         <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9869,7 +9873,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -9887,7 +9891,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9902,10 +9906,10 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>
@@ -9916,10 +9920,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10028,10 +10032,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10142,10 +10146,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10171,23 +10175,23 @@
         <v>99</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="N74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>74</v>
@@ -10229,7 +10233,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10244,10 +10248,10 @@
         <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10258,10 +10262,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10287,13 +10291,13 @@
         <v>159</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10343,7 +10347,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10358,10 +10362,10 @@
         <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10372,10 +10376,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10401,14 +10405,14 @@
         <v>105</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10457,7 +10461,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10472,10 +10476,10 @@
         <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10486,10 +10490,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10515,14 +10519,14 @@
         <v>159</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10571,7 +10575,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10586,10 +10590,10 @@
         <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10600,10 +10604,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10629,16 +10633,16 @@
         <v>266</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10687,7 +10691,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10702,10 +10706,10 @@
         <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10716,10 +10720,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10745,16 +10749,16 @@
         <v>159</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10803,7 +10807,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10818,10 +10822,10 @@
         <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>74</v>
@@ -10832,10 +10836,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10861,14 +10865,14 @@
         <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10917,7 +10921,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10935,10 +10939,10 @@
         <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>74</v>
@@ -10946,10 +10950,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10975,10 +10979,10 @@
         <v>224</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11029,7 +11033,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -11047,7 +11051,7 @@
         <v>74</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>74</v>
@@ -11058,10 +11062,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11087,16 +11091,16 @@
         <v>183</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -11145,7 +11149,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11160,13 +11164,13 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>74</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
@@ -356,7 +356,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -608,7 +608,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -711,7 +711,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1753,17 +1753,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.75" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.5078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="60.015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1772,26 +1772,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.90625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Practitioner.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-Practitioner</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -866,7 +866,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://hl7.no/fhir/StructureDefinition/no-basis-HumanName}
+    <t xml:space="preserve">HumanName {http://hl7.no/fhir/ig/StructureDefinition/no-basis-HumanName}
 </t>
   </si>
   <si>
@@ -930,7 +930,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
+    <t xml:space="preserve">Address {http://hl7.no/fhir/ig/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>
@@ -1763,7 +1763,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="60.015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.98046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
